--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -713,45 +713,49 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14/27</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
@@ -811,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +973,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>17.3%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>60.8%</t>
         </is>
       </c>
     </row>
@@ -1307,22 +1311,22 @@
         <v>56</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>70.4%</t>
         </is>
       </c>
     </row>
@@ -1385,22 +1389,22 @@
         <v>56</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>57.0%</t>
+          <t>48.4%</t>
         </is>
       </c>
     </row>
@@ -1463,22 +1467,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>35.8%</t>
         </is>
       </c>
     </row>
@@ -1541,22 +1545,22 @@
         <v>56</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>67.6%</t>
         </is>
       </c>
     </row>
@@ -1619,22 +1623,22 @@
         <v>56</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>89.5%</t>
+          <t>80.6%</t>
         </is>
       </c>
     </row>
@@ -1697,22 +1701,22 @@
         <v>56</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>80.4%</t>
+          <t>65.7%</t>
         </is>
       </c>
     </row>
@@ -1775,22 +1779,22 @@
         <v>56</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>90.5%</t>
+          <t>74.5%</t>
         </is>
       </c>
     </row>
@@ -1853,22 +1857,22 @@
         <v>56</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>90.2%</t>
+          <t>73.3%</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1935,22 @@
         <v>56</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>58.0%</t>
         </is>
       </c>
     </row>
@@ -2012,10 +2016,10 @@
         <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2087,22 +2091,22 @@
         <v>56</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>59.8%</t>
+          <t>53.1%</t>
         </is>
       </c>
     </row>
@@ -2165,22 +2169,22 @@
         <v>56</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>48.3%</t>
         </is>
       </c>
     </row>
@@ -2505,45 +2509,49 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I33" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>14/27</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
@@ -2911,45 +2919,45 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr"/>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr"/>
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3740,45 +3748,49 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr"/>
-      <c r="H61" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I61" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>4/31</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3869,45 +3881,49 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G64" s="5" t="inlineStr"/>
-      <c r="H64" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I64" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>18/31</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4956,45 +4972,49 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C89" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D89" s="5" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E89" s="5" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F89" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G89" s="5" t="inlineStr"/>
-      <c r="H89" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I89" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>4/31</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5085,45 +5105,49 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C92" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D92" s="5" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E92" s="5" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F92" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G92" s="5" t="inlineStr"/>
-      <c r="H92" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I92" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>18/31</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5343,45 +5367,45 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B98" s="6" t="inlineStr">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C98" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D98" s="6" t="inlineStr">
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E98" s="6" t="inlineStr">
+      <c r="E98" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G98" s="6" t="inlineStr"/>
-      <c r="H98" s="6" t="inlineStr">
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="inlineStr"/>
+      <c r="H98" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I98" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I98" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6172,45 +6196,49 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="5" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C117" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D117" s="5" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E117" s="5" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F117" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G117" s="5" t="inlineStr"/>
-      <c r="H117" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I117" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>7/19</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6301,45 +6329,49 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C120" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D120" s="5" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E120" s="5" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G120" s="5" t="inlineStr"/>
-      <c r="H120" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I120" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>11/19</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7388,45 +7420,49 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C145" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D145" s="5" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E145" s="5" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F145" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G145" s="5" t="inlineStr"/>
-      <c r="H145" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I145" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>7/19</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7517,45 +7553,49 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B148" s="5" t="inlineStr">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C148" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D148" s="5" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E148" s="5" t="inlineStr">
+      <c r="E148" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F148" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G148" s="5" t="inlineStr"/>
-      <c r="H148" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I148" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>11/19</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7775,45 +7815,45 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D154" s="6" t="inlineStr">
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E154" s="6" t="inlineStr">
+      <c r="E154" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr"/>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="inlineStr"/>
+      <c r="H154" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I154" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8604,45 +8644,49 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="5" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C173" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D173" s="5" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E173" s="5" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F173" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G173" s="5" t="inlineStr"/>
-      <c r="H173" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I173" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>9/21</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8733,45 +8777,49 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="5" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D176" s="5" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E176" s="5" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F176" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G176" s="5" t="inlineStr"/>
-      <c r="H176" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I176" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>13/21</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9820,45 +9868,49 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B201" s="5" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C201" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D201" s="5" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E201" s="5" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G201" s="5" t="inlineStr"/>
-      <c r="H201" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I201" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>9/21</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9949,45 +10001,49 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C204" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D204" s="5" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E204" s="5" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F204" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G204" s="5" t="inlineStr"/>
-      <c r="H204" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I204" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>13/21</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10207,45 +10263,45 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B210" s="6" t="inlineStr">
+      <c r="A210" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C210" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D210" s="6" t="inlineStr">
+      <c r="C210" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D210" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E210" s="6" t="inlineStr">
+      <c r="E210" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G210" s="6" t="inlineStr"/>
-      <c r="H210" s="6" t="inlineStr">
+      <c r="F210" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G210" s="5" t="inlineStr"/>
+      <c r="H210" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I210" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I210" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11036,45 +11092,49 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B229" s="5" t="inlineStr">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C229" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D229" s="5" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E229" s="5" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F229" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G229" s="5" t="inlineStr"/>
-      <c r="H229" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I229" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>14/31</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12256,45 +12316,49 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B257" s="5" t="inlineStr">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C257" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D257" s="5" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E257" s="5" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F257" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G257" s="5" t="inlineStr"/>
-      <c r="H257" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I257" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>14/31</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12647,45 +12711,45 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B266" s="6" t="inlineStr">
+      <c r="A266" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B266" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C266" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D266" s="6" t="inlineStr">
+      <c r="C266" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D266" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E266" s="6" t="inlineStr">
+      <c r="E266" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F266" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G266" s="6" t="inlineStr"/>
-      <c r="H266" s="6" t="inlineStr">
+      <c r="F266" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G266" s="5" t="inlineStr"/>
+      <c r="H266" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I266" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I266" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13476,45 +13540,49 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B285" s="5" t="inlineStr">
+      <c r="A285" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C285" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D285" s="5" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E285" s="5" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F285" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G285" s="5" t="inlineStr"/>
-      <c r="H285" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I285" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>2/28</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14696,45 +14764,49 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B313" s="5" t="inlineStr">
+      <c r="A313" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C313" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D313" s="5" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E313" s="5" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F313" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G313" s="5" t="inlineStr"/>
-      <c r="H313" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I313" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F313" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G313" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>2/28</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -15087,45 +15159,45 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B322" s="6" t="inlineStr">
+      <c r="A322" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B322" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C322" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D322" s="6" t="inlineStr">
+      <c r="C322" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D322" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E322" s="6" t="inlineStr">
+      <c r="E322" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F322" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G322" s="6" t="inlineStr"/>
-      <c r="H322" s="6" t="inlineStr">
+      <c r="F322" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G322" s="5" t="inlineStr"/>
+      <c r="H322" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I322" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I322" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15916,45 +15988,49 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B341" s="5" t="inlineStr">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C341" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D341" s="5" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E341" s="5" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F341" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G341" s="5" t="inlineStr"/>
-      <c r="H341" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I341" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F341" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G341" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>3/29</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -17136,45 +17212,49 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B369" s="5" t="inlineStr">
+      <c r="A369" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C369" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D369" s="5" t="inlineStr">
+      <c r="C369" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E369" s="5" t="inlineStr">
+      <c r="E369" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F369" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G369" s="5" t="inlineStr"/>
-      <c r="H369" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I369" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F369" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G369" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H369" s="2" t="inlineStr">
+        <is>
+          <t>3/29</t>
+        </is>
+      </c>
+      <c r="I369" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -17527,45 +17607,45 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B378" s="6" t="inlineStr">
+      <c r="A378" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B378" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C378" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D378" s="6" t="inlineStr">
+      <c r="C378" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D378" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E378" s="6" t="inlineStr">
+      <c r="E378" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F378" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G378" s="6" t="inlineStr"/>
-      <c r="H378" s="6" t="inlineStr">
+      <c r="F378" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G378" s="5" t="inlineStr"/>
+      <c r="H378" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I378" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I378" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18356,45 +18436,49 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B397" s="5" t="inlineStr">
+      <c r="A397" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C397" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D397" s="5" t="inlineStr">
+      <c r="C397" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E397" s="5" t="inlineStr">
+      <c r="E397" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F397" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G397" s="5" t="inlineStr"/>
-      <c r="H397" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I397" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F397" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G397" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H397" s="2" t="inlineStr">
+        <is>
+          <t>2/33</t>
+        </is>
+      </c>
+      <c r="I397" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -19576,45 +19660,49 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B425" s="5" t="inlineStr">
+      <c r="A425" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C425" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D425" s="5" t="inlineStr">
+      <c r="C425" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E425" s="5" t="inlineStr">
+      <c r="E425" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F425" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G425" s="5" t="inlineStr"/>
-      <c r="H425" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I425" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F425" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G425" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H425" s="2" t="inlineStr">
+        <is>
+          <t>2/33</t>
+        </is>
+      </c>
+      <c r="I425" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -19967,45 +20055,45 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B434" s="6" t="inlineStr">
+      <c r="A434" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B434" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C434" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D434" s="6" t="inlineStr">
+      <c r="C434" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D434" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E434" s="6" t="inlineStr">
+      <c r="E434" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F434" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G434" s="6" t="inlineStr"/>
-      <c r="H434" s="6" t="inlineStr">
+      <c r="F434" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G434" s="5" t="inlineStr"/>
+      <c r="H434" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I434" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I434" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20796,45 +20884,49 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B453" s="5" t="inlineStr">
+      <c r="A453" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C453" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D453" s="5" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E453" s="5" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F453" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G453" s="5" t="inlineStr"/>
-      <c r="H453" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I453" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -22016,45 +22108,49 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B481" s="5" t="inlineStr">
+      <c r="A481" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C481" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D481" s="5" t="inlineStr">
+      <c r="C481" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E481" s="5" t="inlineStr">
+      <c r="E481" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F481" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G481" s="5" t="inlineStr"/>
-      <c r="H481" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I481" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H481" s="2" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I481" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -22407,45 +22503,45 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B490" s="6" t="inlineStr">
+      <c r="A490" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B490" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C490" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D490" s="6" t="inlineStr">
+      <c r="C490" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D490" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E490" s="6" t="inlineStr">
+      <c r="E490" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F490" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G490" s="6" t="inlineStr"/>
-      <c r="H490" s="6" t="inlineStr">
+      <c r="F490" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G490" s="5" t="inlineStr"/>
+      <c r="H490" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I490" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I490" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24847,45 +24943,45 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B546" s="6" t="inlineStr">
+      <c r="A546" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B546" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C546" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D546" s="6" t="inlineStr">
+      <c r="C546" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D546" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E546" s="6" t="inlineStr">
+      <c r="E546" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F546" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G546" s="6" t="inlineStr"/>
-      <c r="H546" s="6" t="inlineStr">
+      <c r="F546" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G546" s="5" t="inlineStr"/>
+      <c r="H546" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I546" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I546" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25676,45 +25772,49 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B565" s="5" t="inlineStr">
+      <c r="A565" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B565" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C565" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D565" s="5" t="inlineStr">
+      <c r="C565" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D565" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E565" s="5" t="inlineStr">
+      <c r="E565" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F565" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G565" s="5" t="inlineStr"/>
-      <c r="H565" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I565" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F565" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G565" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H565" s="2" t="inlineStr">
+        <is>
+          <t>1/29</t>
+        </is>
+      </c>
+      <c r="I565" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -25805,45 +25905,49 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B568" s="5" t="inlineStr">
+      <c r="A568" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B568" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C568" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D568" s="5" t="inlineStr">
+      <c r="C568" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E568" s="5" t="inlineStr">
+      <c r="E568" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F568" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G568" s="5" t="inlineStr"/>
-      <c r="H568" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I568" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F568" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G568" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H568" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I568" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -26892,45 +26996,49 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B593" s="5" t="inlineStr">
+      <c r="A593" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B593" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C593" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D593" s="5" t="inlineStr">
+      <c r="C593" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D593" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E593" s="5" t="inlineStr">
+      <c r="E593" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F593" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G593" s="5" t="inlineStr"/>
-      <c r="H593" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I593" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F593" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G593" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H593" s="2" t="inlineStr">
+        <is>
+          <t>1/29</t>
+        </is>
+      </c>
+      <c r="I593" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -27021,45 +27129,49 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B596" s="5" t="inlineStr">
+      <c r="A596" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C596" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D596" s="5" t="inlineStr">
+      <c r="C596" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E596" s="5" t="inlineStr">
+      <c r="E596" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F596" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G596" s="5" t="inlineStr"/>
-      <c r="H596" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I596" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F596" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G596" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H596" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I596" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -27279,45 +27391,45 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B602" s="6" t="inlineStr">
+      <c r="A602" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B602" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C602" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D602" s="6" t="inlineStr">
+      <c r="C602" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D602" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E602" s="6" t="inlineStr">
+      <c r="E602" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F602" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G602" s="6" t="inlineStr"/>
-      <c r="H602" s="6" t="inlineStr">
+      <c r="F602" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G602" s="5" t="inlineStr"/>
+      <c r="H602" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I602" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I602" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28237,45 +28349,49 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B624" s="5" t="inlineStr">
+      <c r="A624" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B624" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C624" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D624" s="5" t="inlineStr">
+      <c r="C624" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E624" s="5" t="inlineStr">
+      <c r="E624" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F624" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G624" s="5" t="inlineStr"/>
-      <c r="H624" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I624" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F624" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G624" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H624" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I624" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29453,45 +29569,49 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B652" s="5" t="inlineStr">
+      <c r="A652" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B652" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C652" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D652" s="5" t="inlineStr">
+      <c r="C652" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E652" s="5" t="inlineStr">
+      <c r="E652" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F652" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G652" s="5" t="inlineStr"/>
-      <c r="H652" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I652" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F652" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G652" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H652" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I652" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29711,45 +29831,45 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B658" s="6" t="inlineStr">
+      <c r="A658" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B658" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C658" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D658" s="6" t="inlineStr">
+      <c r="C658" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D658" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E658" s="6" t="inlineStr">
+      <c r="E658" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F658" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G658" s="6" t="inlineStr"/>
-      <c r="H658" s="6" t="inlineStr">
+      <c r="F658" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G658" s="5" t="inlineStr"/>
+      <c r="H658" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I658" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I658" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +973,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>61.9%</t>
+          <t>67.3%</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>55.5%</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>83.9%</t>
+          <t>89.7%</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>66.4%</t>
+          <t>83.6%</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>89.0%</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>73.3%</t>
+          <t>89.1%</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>58.0%</t>
+          <t>67.3%</t>
         </is>
       </c>
     </row>
@@ -2013,22 +2013,22 @@
         <v>56</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>43.0%</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>53.1%</t>
+          <t>62.8%</t>
         </is>
       </c>
     </row>
@@ -2169,22 +2169,22 @@
         <v>56</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>45.5%</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>4/31</t>
+          <t>15/31</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>4/31</t>
+          <t>15/31</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
-          <t>19/31</t>
+          <t>28/31</t>
         </is>
       </c>
       <c r="I229" s="2" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="H257" s="2" t="inlineStr">
         <is>
-          <t>19/31</t>
+          <t>28/31</t>
         </is>
       </c>
       <c r="I257" s="2" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="H285" s="2" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>27/28</t>
         </is>
       </c>
       <c r="I285" s="2" t="inlineStr">
@@ -14801,7 +14801,7 @@
       </c>
       <c r="H313" s="2" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>27/28</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">
@@ -16025,7 +16025,7 @@
       </c>
       <c r="H341" s="2" t="inlineStr">
         <is>
-          <t>3/29</t>
+          <t>24/29</t>
         </is>
       </c>
       <c r="I341" s="2" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="H369" s="2" t="inlineStr">
         <is>
-          <t>3/29</t>
+          <t>24/29</t>
         </is>
       </c>
       <c r="I369" s="2" t="inlineStr">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="H397" s="2" t="inlineStr">
         <is>
-          <t>2/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I397" s="2" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="H425" s="2" t="inlineStr">
         <is>
-          <t>2/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I425" s="2" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="H453" s="2" t="inlineStr">
         <is>
-          <t>4/30</t>
+          <t>18/30</t>
         </is>
       </c>
       <c r="I453" s="2" t="inlineStr">
@@ -22145,7 +22145,7 @@
       </c>
       <c r="H481" s="2" t="inlineStr">
         <is>
-          <t>4/30</t>
+          <t>18/30</t>
         </is>
       </c>
       <c r="I481" s="2" t="inlineStr">
@@ -23332,45 +23332,49 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B509" s="5" t="inlineStr">
+      <c r="A509" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C509" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D509" s="5" t="inlineStr">
+      <c r="C509" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E509" s="5" t="inlineStr">
+      <c r="E509" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F509" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G509" s="5" t="inlineStr"/>
-      <c r="H509" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I509" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F509" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G509" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H509" s="2" t="inlineStr">
+        <is>
+          <t>5/27</t>
+        </is>
+      </c>
+      <c r="I509" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -24552,45 +24556,49 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B537" s="5" t="inlineStr">
+      <c r="A537" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B537" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C537" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D537" s="5" t="inlineStr">
+      <c r="C537" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E537" s="5" t="inlineStr">
+      <c r="E537" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F537" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G537" s="5" t="inlineStr"/>
-      <c r="H537" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I537" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F537" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G537" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H537" s="2" t="inlineStr">
+        <is>
+          <t>5/27</t>
+        </is>
+      </c>
+      <c r="I537" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -25809,7 +25817,7 @@
       </c>
       <c r="H565" s="2" t="inlineStr">
         <is>
-          <t>1/29</t>
+          <t>15/29</t>
         </is>
       </c>
       <c r="I565" s="2" t="inlineStr">
@@ -27033,7 +27041,7 @@
       </c>
       <c r="H593" s="2" t="inlineStr">
         <is>
-          <t>1/29</t>
+          <t>15/29</t>
         </is>
       </c>
       <c r="I593" s="2" t="inlineStr">
@@ -28220,45 +28228,49 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B621" s="5" t="inlineStr">
+      <c r="A621" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B621" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C621" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D621" s="5" t="inlineStr">
+      <c r="C621" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D621" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E621" s="5" t="inlineStr">
+      <c r="E621" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F621" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G621" s="5" t="inlineStr"/>
-      <c r="H621" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I621" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F621" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G621" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H621" s="2" t="inlineStr">
+        <is>
+          <t>10/29</t>
+        </is>
+      </c>
+      <c r="I621" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29440,45 +29452,49 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B649" s="5" t="inlineStr">
+      <c r="A649" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B649" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C649" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D649" s="5" t="inlineStr">
+      <c r="C649" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E649" s="5" t="inlineStr">
+      <c r="E649" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F649" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G649" s="5" t="inlineStr"/>
-      <c r="H649" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I649" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F649" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G649" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H649" s="2" t="inlineStr">
+        <is>
+          <t>10/29</t>
+        </is>
+      </c>
+      <c r="I649" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -962,7 +962,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21/27</t>
+          <t>22/27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>64.7%</t>
+          <t>66.9%</t>
         </is>
       </c>
     </row>
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>74.7%</t>
+          <t>75.3%</t>
         </is>
       </c>
     </row>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>85.5%</t>
+          <t>90.9%</t>
         </is>
       </c>
     </row>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>73.2%</t>
+          <t>83.9%</t>
         </is>
       </c>
     </row>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>78.7%</t>
+          <t>86.8%</t>
         </is>
       </c>
     </row>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>87.4%</t>
+          <t>88.4%</t>
         </is>
       </c>
     </row>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>62.6%</t>
         </is>
       </c>
     </row>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21/27</t>
+          <t>22/27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -3056,45 +3056,45 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr"/>
-      <c r="H45" s="6" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr"/>
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I45" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5512,45 +5512,45 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G101" s="5" t="inlineStr"/>
+      <c r="H101" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I101" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I101" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7968,45 +7968,45 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D157" s="6" t="inlineStr">
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E157" s="6" t="inlineStr">
+      <c r="E157" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr"/>
-      <c r="H157" s="6" t="inlineStr">
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr"/>
+      <c r="H157" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I157" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I157" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10424,45 +10424,45 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B213" s="6" t="inlineStr">
+      <c r="A213" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C213" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D213" s="6" t="inlineStr">
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D213" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E213" s="6" t="inlineStr">
+      <c r="E213" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F213" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G213" s="6" t="inlineStr"/>
-      <c r="H213" s="6" t="inlineStr">
+      <c r="F213" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G213" s="5" t="inlineStr"/>
+      <c r="H213" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I213" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I213" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>20/31</t>
+          <t>30/31</t>
         </is>
       </c>
       <c r="I233" s="2" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>20/31</t>
+          <t>30/31</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -12880,45 +12880,45 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B269" s="6" t="inlineStr">
+      <c r="A269" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B269" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C269" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D269" s="6" t="inlineStr">
+      <c r="C269" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D269" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E269" s="6" t="inlineStr">
+      <c r="E269" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F269" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G269" s="6" t="inlineStr"/>
-      <c r="H269" s="6" t="inlineStr">
+      <c r="F269" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G269" s="5" t="inlineStr"/>
+      <c r="H269" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I269" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I269" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>24/28</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>24/28</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -15336,45 +15336,45 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B325" s="6" t="inlineStr">
+      <c r="A325" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B325" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C325" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D325" s="6" t="inlineStr">
+      <c r="C325" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D325" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E325" s="6" t="inlineStr">
+      <c r="E325" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F325" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G325" s="6" t="inlineStr"/>
-      <c r="H325" s="6" t="inlineStr">
+      <c r="F325" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G325" s="5" t="inlineStr"/>
+      <c r="H325" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I325" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I325" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="H345" s="2" t="inlineStr">
         <is>
-          <t>8/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I345" s="2" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="H373" s="2" t="inlineStr">
         <is>
-          <t>8/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I373" s="2" t="inlineStr">
@@ -17792,45 +17792,45 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B381" s="6" t="inlineStr">
+      <c r="A381" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B381" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C381" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D381" s="6" t="inlineStr">
+      <c r="C381" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D381" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E381" s="6" t="inlineStr">
+      <c r="E381" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F381" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G381" s="6" t="inlineStr"/>
-      <c r="H381" s="6" t="inlineStr">
+      <c r="F381" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G381" s="5" t="inlineStr"/>
+      <c r="H381" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I381" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I381" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>26/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>26/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">
@@ -20248,45 +20248,45 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B437" s="6" t="inlineStr">
+      <c r="A437" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B437" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C437" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D437" s="6" t="inlineStr">
+      <c r="C437" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D437" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E437" s="6" t="inlineStr">
+      <c r="E437" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F437" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G437" s="6" t="inlineStr"/>
-      <c r="H437" s="6" t="inlineStr">
+      <c r="F437" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G437" s="5" t="inlineStr"/>
+      <c r="H437" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I437" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I437" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22704,45 +22704,45 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B493" s="6" t="inlineStr">
+      <c r="A493" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B493" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C493" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D493" s="6" t="inlineStr">
+      <c r="C493" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D493" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E493" s="6" t="inlineStr">
+      <c r="E493" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F493" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G493" s="6" t="inlineStr"/>
-      <c r="H493" s="6" t="inlineStr">
+      <c r="F493" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G493" s="5" t="inlineStr"/>
+      <c r="H493" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I493" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I493" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25160,45 +25160,45 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B549" s="6" t="inlineStr">
+      <c r="A549" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B549" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C549" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D549" s="6" t="inlineStr">
+      <c r="C549" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D549" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E549" s="6" t="inlineStr">
+      <c r="E549" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F549" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G549" s="6" t="inlineStr"/>
-      <c r="H549" s="6" t="inlineStr">
+      <c r="F549" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G549" s="5" t="inlineStr"/>
+      <c r="H549" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I549" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I549" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26077,7 +26077,7 @@
       </c>
       <c r="H569" s="2" t="inlineStr">
         <is>
-          <t>17/29</t>
+          <t>18/29</t>
         </is>
       </c>
       <c r="I569" s="2" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="H597" s="2" t="inlineStr">
         <is>
-          <t>17/29</t>
+          <t>18/29</t>
         </is>
       </c>
       <c r="I597" s="2" t="inlineStr">
@@ -27616,45 +27616,45 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B605" s="6" t="inlineStr">
+      <c r="A605" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B605" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C605" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D605" s="6" t="inlineStr">
+      <c r="C605" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D605" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E605" s="6" t="inlineStr">
+      <c r="E605" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F605" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G605" s="6" t="inlineStr"/>
-      <c r="H605" s="6" t="inlineStr">
+      <c r="F605" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G605" s="5" t="inlineStr"/>
+      <c r="H605" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I605" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I605" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30072,45 +30072,45 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B661" s="6" t="inlineStr">
+      <c r="A661" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B661" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C661" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D661" s="6" t="inlineStr">
+      <c r="C661" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D661" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E661" s="6" t="inlineStr">
+      <c r="E661" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F661" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G661" s="6" t="inlineStr"/>
-      <c r="H661" s="6" t="inlineStr">
+      <c r="F661" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G661" s="5" t="inlineStr"/>
+      <c r="H661" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I661" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I661" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +977,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>21.7%</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>66.4%</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>50.5%</t>
+          <t>53.2%</t>
         </is>
       </c>
     </row>
@@ -1471,22 +1471,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>24</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>34.2%</t>
+          <t>30.1%</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>83.9%</t>
+          <t>85.1%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>88.4%</t>
+          <t>88.9%</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>8/31</t>
+          <t>13/31</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>8/31</t>
+          <t>13/31</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -6654,45 +6654,49 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C127" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D127" s="5" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E127" s="5" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F127" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G127" s="5" t="inlineStr"/>
-      <c r="H127" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I127" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>1/19</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7882,45 +7886,49 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="5" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D155" s="5" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E155" s="5" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F155" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="5" t="inlineStr"/>
-      <c r="H155" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I155" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>1/19</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13797,7 +13805,7 @@
       </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
-          <t>24/28</t>
+          <t>26/28</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15025,7 +15033,7 @@
       </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
-          <t>24/28</t>
+          <t>26/28</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -18709,7 +18717,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>28/33</t>
+          <t>29/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19937,7 +19945,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>28/33</t>
+          <t>29/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22/27</t>
+          <t>24/27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>66.4%</t>
+          <t>67.8%</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>76.5%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>30.1%</t>
+          <t>33.8%</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>90.9%</t>
+          <t>91.4%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>89.4%</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>68.3%</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>43.8%</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>64.9%</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>46.6%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>22/27</t>
+          <t>24/27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>5/19</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>5/19</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>30/31</t>
+          <t>31/31</t>
         </is>
       </c>
       <c r="I233" s="2" t="inlineStr">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>30/31</t>
+          <t>31/31</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>29/33</t>
+          <t>30/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>29/33</t>
+          <t>30/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">
@@ -21173,7 +21173,7 @@
       </c>
       <c r="H457" s="2" t="inlineStr">
         <is>
-          <t>20/30</t>
+          <t>22/30</t>
         </is>
       </c>
       <c r="I457" s="2" t="inlineStr">
@@ -22401,7 +22401,7 @@
       </c>
       <c r="H485" s="2" t="inlineStr">
         <is>
-          <t>20/30</t>
+          <t>22/30</t>
         </is>
       </c>
       <c r="I485" s="2" t="inlineStr">
@@ -23629,7 +23629,7 @@
       </c>
       <c r="H513" s="2" t="inlineStr">
         <is>
-          <t>9/27</t>
+          <t>13/27</t>
         </is>
       </c>
       <c r="I513" s="2" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="H541" s="2" t="inlineStr">
         <is>
-          <t>9/27</t>
+          <t>13/27</t>
         </is>
       </c>
       <c r="I541" s="2" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="H569" s="2" t="inlineStr">
         <is>
-          <t>18/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I569" s="2" t="inlineStr">
@@ -27313,7 +27313,7 @@
       </c>
       <c r="H597" s="2" t="inlineStr">
         <is>
-          <t>18/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I597" s="2" t="inlineStr">
@@ -28541,7 +28541,7 @@
       </c>
       <c r="H625" s="2" t="inlineStr">
         <is>
-          <t>15/29</t>
+          <t>21/29</t>
         </is>
       </c>
       <c r="I625" s="2" t="inlineStr">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="H653" s="2" t="inlineStr">
         <is>
-          <t>15/29</t>
+          <t>21/29</t>
         </is>
       </c>
       <c r="I653" s="2" t="inlineStr">
